--- a/membresia.xlsx
+++ b/membresia.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,9 +411,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/membresia.xlsx
+++ b/membresia.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,33 +411,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>